--- a/FunctionMapping.xlsx
+++ b/FunctionMapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="757">
   <si>
     <t>char* Func</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2248,6 +2248,70 @@
   </si>
   <si>
     <t>LPWSTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stricmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_tcsicmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_mbsicmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_wcsicmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_tcsnicmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strnicmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_mbsnicmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_wcsnicmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_tcsdup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strdup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_mbsdup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_wcsdup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_tcsupr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strupr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_mbsupr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_wcsupr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2633,10 +2697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D238"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5974,6 +6039,62 @@
       </c>
       <c r="D238" s="1" t="s">
         <v>733</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
